--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1800962.949724739</v>
+        <v>-1802913.1755533</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>125.3813679916766</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>111.451000891819</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>11.31462210444233</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>206.1608002224376</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>335.0240683322421</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>111.5287080994958</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>78.72966359153176</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>120.5254970151684</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>7.1411495271799</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>253.6164213212724</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1271626621473</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>113.2870337730225</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819411</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>128.7031830589488</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>6.924765229690679</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>46.04381361151453</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>229.6715129124371</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.790551274710793</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.009426387533872</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>14.88716286735246</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>168.6928445991047</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>206.7970727961688</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789448</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463138</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S28" t="n">
-        <v>129.7889198539629</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T28" t="n">
         <v>153.4156709287486</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522957</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463138</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941875</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1095.753074569373</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C2" t="n">
-        <v>726.7905576289616</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D2" t="n">
-        <v>726.7905576289616</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>341.0023050307173</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>334.0568042815138</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y2" t="n">
-        <v>1095.753074569373</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5993065148977</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>716.700072989826</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>489.3918856584278</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>489.3918856584278</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>489.3918856584278</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>489.3918856584278</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="X4" t="n">
-        <v>489.3918856584278</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="Y4" t="n">
-        <v>268.5993065148977</v>
+        <v>519.8857516585174</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.56916835588</v>
+        <v>942.2179168761943</v>
       </c>
       <c r="C5" t="n">
-        <v>1349.56916835588</v>
+        <v>573.2553999357826</v>
       </c>
       <c r="D5" t="n">
-        <v>1349.56916835588</v>
+        <v>573.2553999357826</v>
       </c>
       <c r="E5" t="n">
-        <v>963.7809157576355</v>
+        <v>187.4671473375384</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>180.5216465883349</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>166.5982425269258</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>166.5982425269258</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1328.817756940316</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4659,16 +4659,16 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>2440.423984540446</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>2271.487801612539</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="S7" t="n">
-        <v>428.8224802162921</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="T7" t="n">
-        <v>428.8224802162921</v>
+        <v>2440.423984540446</v>
       </c>
       <c r="U7" t="n">
-        <v>428.8224802162921</v>
+        <v>2440.423984540446</v>
       </c>
       <c r="V7" t="n">
-        <v>428.8224802162921</v>
+        <v>2440.423984540446</v>
       </c>
       <c r="W7" t="n">
-        <v>428.8224802162921</v>
+        <v>2440.423984540446</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>2440.423984540446</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>2440.423984540446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2689.935808667536</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2513.758320981706</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2513.758320981706</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2513.758320981706</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2513.758320981706</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.758320981706</v>
+        <v>1968.574435273556</v>
       </c>
       <c r="X8" t="n">
-        <v>2140.292562720626</v>
+        <v>1968.574435273556</v>
       </c>
       <c r="Y8" t="n">
-        <v>1750.153230744814</v>
+        <v>1578.435103297744</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4893,31 +4893,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6471865296041</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6471865296041</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6471865296041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6471865296041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6471865296041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6471865296041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>613.6976369609572</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>613.6976369609572</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>613.6976369609572</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6471865296041</v>
+        <v>613.6976369609572</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6471865296041</v>
+        <v>613.6976369609572</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6471865296041</v>
+        <v>613.6976369609572</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6471865296041</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6471865296041</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,31 +5057,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5106,31 +5106,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.9302197295771</v>
+        <v>868.4856756861116</v>
       </c>
       <c r="C13" t="n">
-        <v>506.9302197295771</v>
+        <v>699.5494927582047</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185177</v>
+        <v>549.4328533458689</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>401.5197597634758</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>254.6298122655654</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>254.6298122655654</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>104.2118038135087</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033469</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>909.3712637033469</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>909.3712637033469</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y13" t="n">
-        <v>688.5786845598168</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="14">
@@ -5276,7 +5276,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5364,13 +5364,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.6350999123426</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
         <v>247.6350999123426</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1452.407367920009</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1228.621952709515</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>939.4933139230729</v>
+        <v>1043.139428163128</v>
       </c>
       <c r="V16" t="n">
-        <v>939.4933139230729</v>
+        <v>1043.139428163128</v>
       </c>
       <c r="W16" t="n">
-        <v>650.0761438861124</v>
+        <v>1043.139428163128</v>
       </c>
       <c r="X16" t="n">
-        <v>650.0761438861124</v>
+        <v>1043.139428163128</v>
       </c>
       <c r="Y16" t="n">
-        <v>429.2835647425823</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,31 +5534,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5601,7 +5601,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5610,10 +5610,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>364.7173639423012</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>364.7173639423012</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>214.6007245299654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>214.6007245299654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>214.6007245299654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>214.6007245299654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>874.927113122792</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>874.927113122792</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>585.5099430858313</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>585.5099430858313</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>364.7173639423012</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,34 +5735,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5771,13 +5771,13 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>545.1765965867977</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C22" t="n">
-        <v>545.1765965867977</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D22" t="n">
-        <v>395.0599571744619</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E22" t="n">
-        <v>247.1468635920688</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F22" t="n">
-        <v>100.2569160941585</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1149.018213659383</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>894.3337254534956</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>604.9165554165351</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="Y22" t="n">
-        <v>726.8250614170374</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.2811958984814</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1128.599447747086</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>1128.599447747086</v>
       </c>
       <c r="V25" t="n">
-        <v>1133.156678913841</v>
+        <v>1128.599447747086</v>
       </c>
       <c r="W25" t="n">
-        <v>1133.156678913841</v>
+        <v>839.1822777101256</v>
       </c>
       <c r="X25" t="n">
-        <v>905.1671280158237</v>
+        <v>611.1927268121083</v>
       </c>
       <c r="Y25" t="n">
-        <v>696.2811958984814</v>
+        <v>390.4001476685781</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506717</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
@@ -6382,13 +6382,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,10 +6403,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S28" t="n">
         <v>1865.165908942116</v>
@@ -6421,13 +6421,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6464,19 +6464,19 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6619,13 +6619,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,10 +6640,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S31" t="n">
         <v>1865.165908942116</v>
@@ -6658,13 +6658,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="32">
@@ -6680,46 +6680,46 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,25 +6920,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083196</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504503</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7318,25 +7318,25 @@
         <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010315</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7412,16 +7412,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7436,25 +7436,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,28 +7591,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>127.646125010065</v>
       </c>
       <c r="N12" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627462</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>176.717654749845</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>288.4028020291183</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>254.9254496028403</v>
       </c>
     </row>
     <row r="3">
@@ -22714,13 +22714,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22747,22 +22747,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.8309168455766</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>11.51910182477655</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>19.9122899592636</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>103.4944802345813</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>151.8769963720887</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>56.56583948614022</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>143.1232770928253</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>163.4841420758437</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>271.3501895312249</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>52.85471645928459</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.78758055592598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.037392394209746e-12</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58099.54682262557</v>
+        <v>58099.54682262555</v>
       </c>
       <c r="C2" t="n">
+        <v>61578.13273982121</v>
+      </c>
+      <c r="D2" t="n">
         <v>61578.13273982122</v>
       </c>
-      <c r="D2" t="n">
-        <v>61578.13273982124</v>
-      </c>
       <c r="E2" t="n">
-        <v>58654.35896065628</v>
+        <v>58654.3589606563</v>
       </c>
       <c r="F2" t="n">
-        <v>58654.35896065627</v>
+        <v>58654.3589606563</v>
       </c>
       <c r="G2" t="n">
-        <v>58654.35896065628</v>
+        <v>58654.35896065631</v>
       </c>
       <c r="H2" t="n">
         <v>58654.3589606563</v>
       </c>
       <c r="I2" t="n">
-        <v>58654.35896065628</v>
+        <v>58654.3589606563</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982128</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.1327398213</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="M2" t="n">
         <v>61578.13273982127</v>
       </c>
       <c r="N2" t="n">
+        <v>61578.13273982128</v>
+      </c>
+      <c r="O2" t="n">
         <v>61578.13273982127</v>
       </c>
-      <c r="O2" t="n">
-        <v>61578.13273982128</v>
-      </c>
       <c r="P2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.1327398213</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371244</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007525</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007456</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007438</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="J4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="K4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="L4" t="n">
+        <v>30335.51889732792</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
-      <c r="K4" t="n">
-        <v>30335.51889732799</v>
-      </c>
-      <c r="L4" t="n">
-        <v>30335.51889732797</v>
-      </c>
-      <c r="M4" t="n">
-        <v>30335.51889732793</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732796</v>
-      </c>
       <c r="O4" t="n">
+        <v>30335.51889732794</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732795</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="J5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-736171.6283569768</v>
+        <v>-736287.5812208833</v>
       </c>
       <c r="C6" t="n">
         <v>-169197.9940395091</v>
       </c>
       <c r="D6" t="n">
-        <v>-169197.994039509</v>
+        <v>-169197.9940395091</v>
       </c>
       <c r="E6" t="n">
-        <v>-566409.735120964</v>
+        <v>-566507.1942469358</v>
       </c>
       <c r="F6" t="n">
-        <v>-41249.69864406785</v>
+        <v>-41347.15777004001</v>
       </c>
       <c r="G6" t="n">
-        <v>-41249.69864406781</v>
+        <v>-41347.15777003996</v>
       </c>
       <c r="H6" t="n">
-        <v>-41249.69864406782</v>
+        <v>-41347.15777003997</v>
       </c>
       <c r="I6" t="n">
-        <v>-41249.69864406785</v>
+        <v>-41347.15777003999</v>
       </c>
       <c r="J6" t="n">
-        <v>-297401.2232738375</v>
+        <v>-297401.2232738374</v>
       </c>
       <c r="K6" t="n">
-        <v>-66472.49197753213</v>
+        <v>-66472.49197753203</v>
       </c>
       <c r="L6" t="n">
-        <v>-66472.49197753212</v>
+        <v>-66472.49197753206</v>
       </c>
       <c r="M6" t="n">
-        <v>-201273.5072113692</v>
+        <v>-201273.5072113691</v>
       </c>
       <c r="N6" t="n">
         <v>-66472.49197753207</v>
       </c>
       <c r="O6" t="n">
-        <v>-120978.0040812446</v>
+        <v>-120978.0040812445</v>
       </c>
       <c r="P6" t="n">
-        <v>-66472.49197753207</v>
+        <v>-66472.49197753203</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,25 +26744,25 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26771,10 +26771,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26923,28 +26923,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964055</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>19.86148816139422</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>240.6185414990514</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>80.36219811415336</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>71.85197740946933</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>40.40260814536548</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>69.88580942668059</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>91.62004193485049</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>47.3372530476318</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>95.62454739614057</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,7 +28026,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04372617964787651</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>33.37815820713537</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="29">
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>438.0705020605312</v>
       </c>
       <c r="N12" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>621.6037559756885</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.154607095148</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>509.9122281478579</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L28" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M28" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N28" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36847,13 +36847,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
